--- a/biology/Histoire de la zoologie et de la botanique/Maurice_Pic_(entomologiste)/Maurice_Pic_(entomologiste).xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Maurice_Pic_(entomologiste)/Maurice_Pic_(entomologiste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Maurice, Louis, Joseph, Gaspard Pic, né le 23 mars 1866 à Marcigny (Saône-et-Loire) de Edmond Gaspard Pic, Juge de Paix et de Marie-Louise Calixte Merle [1]. Décédé le 29 décembre 1957 à Les Guerreaux (Saône-et-Loire), est un entomologiste français spécialisé dans l'ordre des Coleoptera.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maurice, Louis, Joseph, Gaspard Pic, né le 23 mars 1866 à Marcigny (Saône-et-Loire) de Edmond Gaspard Pic, Juge de Paix et de Marie-Louise Calixte Merle . Décédé le 29 décembre 1957 à Les Guerreaux (Saône-et-Loire), est un entomologiste français spécialisé dans l'ordre des Coleoptera.
 Il fut maire de Les Guerraux pendant 43 ans (de 1902 à 1945) et conseiller d'Arrondissement du Canton de Digoin de 1919 à 1939.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Maurice Pic laisse une œuvre considérable mais très controversée. Il a publié 950 articles, décrit 3 174 espèces de Coléoptères et nommé quelque 2 200 variétés. Ses descriptions, très sommaires, dépourvues d'illustrations sont souvent contestées[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Maurice Pic laisse une œuvre considérable mais très controversée. Il a publié 950 articles, décrit 3 174 espèces de Coléoptères et nommé quelque 2 200 variétés. Ses descriptions, très sommaires, dépourvues d'illustrations sont souvent contestées.
 Parmi ses publications :
 1891-1934 : Matériaux pour servir à l'étude des Longicornes.
 1911-1923 : Mélanges exotico-entomologiques.
@@ -546,7 +560,9 @@
           <t>Périodiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Il a publié trois périodiques :
 L'Échange, 1885-1956, 543 issues
@@ -579,9 +595,11 @@
           <t>Récompenses et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Maurice Pic reçut le prix Jean Dollfus de la Société entomologique de France en 1911 pour son travail: Matériaux pour servir à l'étude des Longicornes[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maurice Pic reçut le prix Jean Dollfus de la Société entomologique de France en 1911 pour son travail: Matériaux pour servir à l'étude des Longicornes.
 Il fut nommé  Chevalier du Mérite agricole en 1912 et promu Officier en 1920 . Nommé Officier de l'Instruction publique en 1913 :(équivalence avec:  Officier de l'ordre des Palmes académiques). Nommé Chevalier de la Légion d'Honneur le 6 octobre 1933 et promu  Officier de la Légion d'honneur le 11 juillet 1952.
 </t>
         </is>
